--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/metrics/Trial_422__Reeval_Halton_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/metrics/Trial_422__Reeval_Halton_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5911,7 +5911,7 @@
                   <c:v>344.392333984375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>342.4774169921875</c:v>
+                  <c:v>342.4774475097656</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>361.0722351074219</c:v>
@@ -5926,16 +5926,16 @@
                   <c:v>361.1663513183594</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>364.0134582519531</c:v>
+                  <c:v>364.0134887695312</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>337.5369873046875</c:v>
+                  <c:v>337.5369567871094</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>392.3533935546875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>348.3926086425781</c:v>
+                  <c:v>348.392578125</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>329.8458557128906</c:v>
@@ -5974,7 +5974,7 @@
                   <c:v>359.5154418945312</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348.0290222167969</c:v>
+                  <c:v>348.029052734375</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>356.2554016113281</c:v>
@@ -6010,7 +6010,7 @@
                   <c:v>349.2889709472656</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>361.4424743652344</c:v>
+                  <c:v>361.4425048828125</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>342.6187438964844</c:v>
@@ -6031,7 +6031,7 @@
                   <c:v>357.7909545898438</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>342.7801208496094</c:v>
+                  <c:v>342.7801513671875</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>362.6432800292969</c:v>
@@ -6055,7 +6055,7 @@
                   <c:v>361.6368713378906</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>340.5637512207031</c:v>
+                  <c:v>340.5637817382812</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>339.668701171875</c:v>
@@ -6076,10 +6076,10 @@
                   <c:v>361.9664916992188</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>346.3734130859375</c:v>
+                  <c:v>346.3733825683594</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>355.3417358398438</c:v>
+                  <c:v>355.3417663574219</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>343.3668518066406</c:v>
@@ -6118,10 +6118,10 @@
                   <c:v>354.6631774902344</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>343.850830078125</c:v>
+                  <c:v>343.8508605957031</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>342.4929809570312</c:v>
+                  <c:v>342.4930114746094</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>365.52197265625</c:v>
@@ -6130,7 +6130,7 @@
                   <c:v>361.2220764160156</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>354.8394470214844</c:v>
+                  <c:v>354.8394165039062</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>351.8996887207031</c:v>
@@ -6215,7 +6215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6230,7 +6230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6259,7 +6259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6274,7 +6274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6303,7 +6303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6318,7 +6318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6830,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H787"/>
+  <dimension ref="A1:S787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,8 +6861,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>342.196</v>
       </c>
@@ -6887,8 +6893,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.506</v>
       </c>
@@ -6913,8 +6925,14 @@
       <c r="H3">
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>393</v>
+      </c>
+      <c r="S3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>355.709</v>
       </c>
@@ -6934,13 +6952,19 @@
         <v>346.7273254394531</v>
       </c>
       <c r="G4">
+        <v>393</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>393</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>361.128</v>
       </c>
@@ -6965,8 +6989,14 @@
       <c r="H5">
         <v>393</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>393</v>
+      </c>
+      <c r="S5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.345</v>
       </c>
@@ -6986,13 +7016,19 @@
         <v>365.0007629394531</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>393</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>331.376</v>
       </c>
@@ -7017,8 +7053,14 @@
       <c r="H7">
         <v>393</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>393</v>
+      </c>
+      <c r="S7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>317.294</v>
       </c>
@@ -7035,10 +7077,10 @@
         <v>357.814</v>
       </c>
       <c r="F8">
-        <v>342.4774169921875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>342.4774475097656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>354.275</v>
       </c>
@@ -7058,7 +7100,7 @@
         <v>361.0722351074219</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>339.738</v>
       </c>
@@ -7078,7 +7120,7 @@
         <v>358.427734375</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>355.403</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>357.3451843261719</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>357.053</v>
       </c>
@@ -7118,7 +7160,7 @@
         <v>361.1663513183594</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>351.338</v>
       </c>
@@ -7135,10 +7177,10 @@
         <v>356.446</v>
       </c>
       <c r="F13">
-        <v>364.0134582519531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>364.0134887695312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>355.857</v>
       </c>
@@ -7155,10 +7197,10 @@
         <v>337.425</v>
       </c>
       <c r="F14">
-        <v>337.5369873046875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>337.5369567871094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>358.131</v>
       </c>
@@ -7178,7 +7220,7 @@
         <v>392.3533935546875</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>357.205</v>
       </c>
@@ -7195,7 +7237,7 @@
         <v>336.846</v>
       </c>
       <c r="F16">
-        <v>348.3926086425781</v>
+        <v>348.392578125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7455,7 +7497,7 @@
         <v>336.891</v>
       </c>
       <c r="F29">
-        <v>348.0290222167969</v>
+        <v>348.029052734375</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7695,7 +7737,7 @@
         <v>363.563</v>
       </c>
       <c r="F41">
-        <v>361.4424743652344</v>
+        <v>361.4425048828125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7835,7 +7877,7 @@
         <v>356.253</v>
       </c>
       <c r="F48">
-        <v>342.7801208496094</v>
+        <v>342.7801513671875</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7995,7 +8037,7 @@
         <v>340.859</v>
       </c>
       <c r="F56">
-        <v>340.5637512207031</v>
+        <v>340.5637817382812</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8135,7 +8177,7 @@
         <v>361.676</v>
       </c>
       <c r="F63">
-        <v>346.3734130859375</v>
+        <v>346.3733825683594</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8155,7 +8197,7 @@
         <v>356.985</v>
       </c>
       <c r="F64">
-        <v>355.3417358398438</v>
+        <v>355.3417663574219</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8415,7 +8457,7 @@
         <v>329.924</v>
       </c>
       <c r="F77">
-        <v>343.850830078125</v>
+        <v>343.8508605957031</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8435,7 +8477,7 @@
         <v>337.008</v>
       </c>
       <c r="F78">
-        <v>342.4929809570312</v>
+        <v>342.4930114746094</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8495,7 +8537,7 @@
         <v>357.47</v>
       </c>
       <c r="F81">
-        <v>354.8394470214844</v>
+        <v>354.8394165039062</v>
       </c>
     </row>
     <row r="82" spans="1:6">
